--- a/ContinuousGeneralisation_Data/AreaAggregation/AreaAggregation/TypeDistance.xlsx
+++ b/ContinuousGeneralisation_Data/AreaAggregation/AreaAggregation/TypeDistance.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A52E4D-FD66-4247-9B3E-5153B6C134B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5664" yWindow="1308" windowWidth="14400" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="integers" sheetId="2" r:id="rId2"/>
+    <sheet name="row_each" sheetId="4" r:id="rId3"/>
+    <sheet name="integers_backup" sheetId="3" r:id="rId4"/>
+    <sheet name="bitmasks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>type_from</t>
+  </si>
+  <si>
+    <t>type_to</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -39,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -107,11 +126,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -137,6 +236,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,17 +637,7207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="11" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6">
+        <v>2101</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2112</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2114</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2201</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2202</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2213</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2230</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2301</v>
+      </c>
+      <c r="J1" s="6">
+        <v>3103</v>
+      </c>
+      <c r="K1" s="5">
+        <v>3302</v>
+      </c>
+      <c r="L1" s="5">
+        <v>4101</v>
+      </c>
+      <c r="M1" s="5">
+        <v>4102</v>
+      </c>
+      <c r="N1" s="5">
+        <v>4103</v>
+      </c>
+      <c r="O1" s="5">
+        <v>4104</v>
+      </c>
+      <c r="P1" s="5">
+        <v>4105</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>4107</v>
+      </c>
+      <c r="R1" s="5">
+        <v>4108</v>
+      </c>
+      <c r="S1" s="5">
+        <v>4109</v>
+      </c>
+      <c r="T1" s="7">
+        <v>4111</v>
+      </c>
+      <c r="U1" s="5">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="8">
+        <v>2101</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="R2" s="8">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1</v>
+      </c>
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3">
+        <v>2112</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3">
+        <v>2114</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3">
+        <v>2201</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3">
+        <v>2202</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="3">
+        <v>2213</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3">
+        <v>2230</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="5">
+        <v>2301</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>3103</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>3302</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="8">
+        <v>4101</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3">
+        <v>4102</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3">
+        <v>4103</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="3">
+        <v>4104</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3">
+        <v>4105</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="3">
+        <v>4107</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="3">
+        <v>4108</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="3">
+        <v>4109</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="5">
+        <v>4111</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>5112</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B697A01-BB08-4C53-8478-8CA4F4195849}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25">
+        <v>2101</v>
+      </c>
+      <c r="C1" s="24">
+        <v>2112</v>
+      </c>
+      <c r="D1" s="24">
+        <v>2114</v>
+      </c>
+      <c r="E1" s="24">
+        <v>2201</v>
+      </c>
+      <c r="F1" s="24">
+        <v>2202</v>
+      </c>
+      <c r="G1" s="24">
+        <v>2213</v>
+      </c>
+      <c r="H1" s="24">
+        <v>2230</v>
+      </c>
+      <c r="I1" s="24">
+        <v>2301</v>
+      </c>
+      <c r="J1" s="25">
+        <v>3103</v>
+      </c>
+      <c r="K1" s="24">
+        <v>3302</v>
+      </c>
+      <c r="L1" s="24">
+        <v>4101</v>
+      </c>
+      <c r="M1" s="24">
+        <v>4102</v>
+      </c>
+      <c r="N1" s="24">
+        <v>4103</v>
+      </c>
+      <c r="O1" s="24">
+        <v>4104</v>
+      </c>
+      <c r="P1" s="24">
+        <v>4105</v>
+      </c>
+      <c r="Q1" s="24">
+        <v>4107</v>
+      </c>
+      <c r="R1" s="24">
+        <v>4108</v>
+      </c>
+      <c r="S1" s="24">
+        <v>4109</v>
+      </c>
+      <c r="T1" s="26">
+        <v>4111</v>
+      </c>
+      <c r="U1" s="24">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="27">
+        <v>2101</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+      <c r="F2" s="28">
+        <v>2</v>
+      </c>
+      <c r="G2" s="28">
+        <v>2</v>
+      </c>
+      <c r="H2" s="28">
+        <v>2</v>
+      </c>
+      <c r="I2" s="28">
+        <v>2</v>
+      </c>
+      <c r="J2" s="28">
+        <v>4</v>
+      </c>
+      <c r="K2" s="28">
+        <v>4</v>
+      </c>
+      <c r="L2" s="27">
+        <v>6</v>
+      </c>
+      <c r="M2" s="27">
+        <v>6</v>
+      </c>
+      <c r="N2" s="27">
+        <v>6</v>
+      </c>
+      <c r="O2" s="27">
+        <v>6</v>
+      </c>
+      <c r="P2" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>6</v>
+      </c>
+      <c r="R2" s="27">
+        <v>6</v>
+      </c>
+      <c r="S2" s="27">
+        <v>6</v>
+      </c>
+      <c r="T2" s="27">
+        <v>6</v>
+      </c>
+      <c r="U2" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="16">
+        <v>2112</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2</v>
+      </c>
+      <c r="G3" s="29">
+        <v>2</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2</v>
+      </c>
+      <c r="I3" s="29">
+        <v>2</v>
+      </c>
+      <c r="J3" s="29">
+        <v>4</v>
+      </c>
+      <c r="K3" s="29">
+        <v>4</v>
+      </c>
+      <c r="L3" s="16">
+        <v>6</v>
+      </c>
+      <c r="M3" s="16">
+        <v>6</v>
+      </c>
+      <c r="N3" s="16">
+        <v>6</v>
+      </c>
+      <c r="O3" s="16">
+        <v>6</v>
+      </c>
+      <c r="P3" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>6</v>
+      </c>
+      <c r="R3" s="16">
+        <v>6</v>
+      </c>
+      <c r="S3" s="16">
+        <v>6</v>
+      </c>
+      <c r="T3" s="16">
+        <v>6</v>
+      </c>
+      <c r="U3" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="16">
+        <v>2114</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <v>2</v>
+      </c>
+      <c r="G4" s="29">
+        <v>2</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2</v>
+      </c>
+      <c r="J4" s="28">
+        <v>4</v>
+      </c>
+      <c r="K4" s="28">
+        <v>4</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6</v>
+      </c>
+      <c r="M4" s="16">
+        <v>6</v>
+      </c>
+      <c r="N4" s="16">
+        <v>6</v>
+      </c>
+      <c r="O4" s="16">
+        <v>6</v>
+      </c>
+      <c r="P4" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>6</v>
+      </c>
+      <c r="R4" s="16">
+        <v>6</v>
+      </c>
+      <c r="S4" s="16">
+        <v>6</v>
+      </c>
+      <c r="T4" s="16">
+        <v>6</v>
+      </c>
+      <c r="U4" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="16">
+        <v>2201</v>
+      </c>
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29">
+        <v>2</v>
+      </c>
+      <c r="J5" s="29">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29">
+        <v>4</v>
+      </c>
+      <c r="L5" s="16">
+        <v>6</v>
+      </c>
+      <c r="M5" s="16">
+        <v>6</v>
+      </c>
+      <c r="N5" s="16">
+        <v>6</v>
+      </c>
+      <c r="O5" s="16">
+        <v>6</v>
+      </c>
+      <c r="P5" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>6</v>
+      </c>
+      <c r="R5" s="16">
+        <v>6</v>
+      </c>
+      <c r="S5" s="16">
+        <v>6</v>
+      </c>
+      <c r="T5" s="16">
+        <v>6</v>
+      </c>
+      <c r="U5" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="16">
+        <v>2202</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2</v>
+      </c>
+      <c r="I6" s="29">
+        <v>2</v>
+      </c>
+      <c r="J6" s="28">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16">
+        <v>6</v>
+      </c>
+      <c r="M6" s="16">
+        <v>6</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6</v>
+      </c>
+      <c r="O6" s="16">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>6</v>
+      </c>
+      <c r="R6" s="16">
+        <v>6</v>
+      </c>
+      <c r="S6" s="16">
+        <v>6</v>
+      </c>
+      <c r="T6" s="16">
+        <v>6</v>
+      </c>
+      <c r="U6" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="16">
+        <v>2213</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2</v>
+      </c>
+      <c r="I7" s="29">
+        <v>2</v>
+      </c>
+      <c r="J7" s="29">
+        <v>4</v>
+      </c>
+      <c r="K7" s="29">
+        <v>4</v>
+      </c>
+      <c r="L7" s="16">
+        <v>6</v>
+      </c>
+      <c r="M7" s="16">
+        <v>6</v>
+      </c>
+      <c r="N7" s="16">
+        <v>6</v>
+      </c>
+      <c r="O7" s="16">
+        <v>6</v>
+      </c>
+      <c r="P7" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>6</v>
+      </c>
+      <c r="R7" s="16">
+        <v>6</v>
+      </c>
+      <c r="S7" s="16">
+        <v>6</v>
+      </c>
+      <c r="T7" s="16">
+        <v>6</v>
+      </c>
+      <c r="U7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="16">
+        <v>2230</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="29">
+        <v>2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>2</v>
+      </c>
+      <c r="J8" s="28">
+        <v>4</v>
+      </c>
+      <c r="K8" s="28">
+        <v>4</v>
+      </c>
+      <c r="L8" s="16">
+        <v>6</v>
+      </c>
+      <c r="M8" s="16">
+        <v>6</v>
+      </c>
+      <c r="N8" s="16">
+        <v>6</v>
+      </c>
+      <c r="O8" s="16">
+        <v>6</v>
+      </c>
+      <c r="P8" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>6</v>
+      </c>
+      <c r="R8" s="16">
+        <v>6</v>
+      </c>
+      <c r="S8" s="16">
+        <v>6</v>
+      </c>
+      <c r="T8" s="16">
+        <v>6</v>
+      </c>
+      <c r="U8" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="24">
+        <v>2301</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <v>4</v>
+      </c>
+      <c r="L9" s="24">
+        <v>6</v>
+      </c>
+      <c r="M9" s="24">
+        <v>6</v>
+      </c>
+      <c r="N9" s="24">
+        <v>6</v>
+      </c>
+      <c r="O9" s="24">
+        <v>6</v>
+      </c>
+      <c r="P9" s="24">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>6</v>
+      </c>
+      <c r="R9" s="24">
+        <v>6</v>
+      </c>
+      <c r="S9" s="24">
+        <v>6</v>
+      </c>
+      <c r="T9" s="24">
+        <v>6</v>
+      </c>
+      <c r="U9" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="30">
+        <v>3103</v>
+      </c>
+      <c r="B10" s="29">
+        <v>4</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4</v>
+      </c>
+      <c r="D10" s="29">
+        <v>4</v>
+      </c>
+      <c r="E10" s="29">
+        <v>4</v>
+      </c>
+      <c r="F10" s="29">
+        <v>4</v>
+      </c>
+      <c r="G10" s="29">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29">
+        <v>4</v>
+      </c>
+      <c r="I10" s="29">
+        <v>4</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2</v>
+      </c>
+      <c r="L10" s="16">
+        <v>6</v>
+      </c>
+      <c r="M10" s="16">
+        <v>6</v>
+      </c>
+      <c r="N10" s="16">
+        <v>6</v>
+      </c>
+      <c r="O10" s="16">
+        <v>6</v>
+      </c>
+      <c r="P10" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>6</v>
+      </c>
+      <c r="R10" s="16">
+        <v>6</v>
+      </c>
+      <c r="S10" s="16">
+        <v>6</v>
+      </c>
+      <c r="T10" s="16">
+        <v>6</v>
+      </c>
+      <c r="U10" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="30">
+        <v>3302</v>
+      </c>
+      <c r="B11" s="29">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29">
+        <v>4</v>
+      </c>
+      <c r="D11" s="29">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29">
+        <v>4</v>
+      </c>
+      <c r="F11" s="29">
+        <v>4</v>
+      </c>
+      <c r="G11" s="29">
+        <v>4</v>
+      </c>
+      <c r="H11" s="29">
+        <v>4</v>
+      </c>
+      <c r="I11" s="29">
+        <v>4</v>
+      </c>
+      <c r="J11" s="29">
+        <v>2</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>6</v>
+      </c>
+      <c r="M11" s="16">
+        <v>6</v>
+      </c>
+      <c r="N11" s="16">
+        <v>6</v>
+      </c>
+      <c r="O11" s="16">
+        <v>6</v>
+      </c>
+      <c r="P11" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>6</v>
+      </c>
+      <c r="R11" s="16">
+        <v>6</v>
+      </c>
+      <c r="S11" s="16">
+        <v>6</v>
+      </c>
+      <c r="T11" s="16">
+        <v>6</v>
+      </c>
+      <c r="U11" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="27">
+        <v>4101</v>
+      </c>
+      <c r="B12" s="28">
+        <v>6</v>
+      </c>
+      <c r="C12" s="28">
+        <v>6</v>
+      </c>
+      <c r="D12" s="28">
+        <v>6</v>
+      </c>
+      <c r="E12" s="28">
+        <v>6</v>
+      </c>
+      <c r="F12" s="28">
+        <v>6</v>
+      </c>
+      <c r="G12" s="28">
+        <v>6</v>
+      </c>
+      <c r="H12" s="28">
+        <v>6</v>
+      </c>
+      <c r="I12" s="28">
+        <v>6</v>
+      </c>
+      <c r="J12" s="28">
+        <v>6</v>
+      </c>
+      <c r="K12" s="28">
+        <v>6</v>
+      </c>
+      <c r="L12" s="28">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <v>2</v>
+      </c>
+      <c r="N12" s="28">
+        <v>2</v>
+      </c>
+      <c r="O12" s="28">
+        <v>2</v>
+      </c>
+      <c r="P12" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>2</v>
+      </c>
+      <c r="R12" s="28">
+        <v>2</v>
+      </c>
+      <c r="S12" s="28">
+        <v>2</v>
+      </c>
+      <c r="T12" s="28">
+        <v>2</v>
+      </c>
+      <c r="U12" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="16">
+        <v>4102</v>
+      </c>
+      <c r="B13" s="29">
+        <v>6</v>
+      </c>
+      <c r="C13" s="29">
+        <v>6</v>
+      </c>
+      <c r="D13" s="29">
+        <v>6</v>
+      </c>
+      <c r="E13" s="29">
+        <v>6</v>
+      </c>
+      <c r="F13" s="29">
+        <v>6</v>
+      </c>
+      <c r="G13" s="29">
+        <v>6</v>
+      </c>
+      <c r="H13" s="29">
+        <v>6</v>
+      </c>
+      <c r="I13" s="29">
+        <v>6</v>
+      </c>
+      <c r="J13" s="29">
+        <v>6</v>
+      </c>
+      <c r="K13" s="29">
+        <v>6</v>
+      </c>
+      <c r="L13" s="29">
+        <v>2</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0</v>
+      </c>
+      <c r="N13" s="29">
+        <v>2</v>
+      </c>
+      <c r="O13" s="29">
+        <v>2</v>
+      </c>
+      <c r="P13" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>2</v>
+      </c>
+      <c r="R13" s="29">
+        <v>2</v>
+      </c>
+      <c r="S13" s="29">
+        <v>2</v>
+      </c>
+      <c r="T13" s="29">
+        <v>2</v>
+      </c>
+      <c r="U13" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="16">
+        <v>4103</v>
+      </c>
+      <c r="B14" s="29">
+        <v>6</v>
+      </c>
+      <c r="C14" s="29">
+        <v>6</v>
+      </c>
+      <c r="D14" s="29">
+        <v>6</v>
+      </c>
+      <c r="E14" s="29">
+        <v>6</v>
+      </c>
+      <c r="F14" s="29">
+        <v>6</v>
+      </c>
+      <c r="G14" s="29">
+        <v>6</v>
+      </c>
+      <c r="H14" s="29">
+        <v>6</v>
+      </c>
+      <c r="I14" s="29">
+        <v>6</v>
+      </c>
+      <c r="J14" s="29">
+        <v>6</v>
+      </c>
+      <c r="K14" s="29">
+        <v>6</v>
+      </c>
+      <c r="L14" s="29">
+        <v>2</v>
+      </c>
+      <c r="M14" s="29">
+        <v>2</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29">
+        <v>2</v>
+      </c>
+      <c r="P14" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>2</v>
+      </c>
+      <c r="R14" s="29">
+        <v>2</v>
+      </c>
+      <c r="S14" s="29">
+        <v>2</v>
+      </c>
+      <c r="T14" s="29">
+        <v>2</v>
+      </c>
+      <c r="U14" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="16">
+        <v>4104</v>
+      </c>
+      <c r="B15" s="29">
+        <v>6</v>
+      </c>
+      <c r="C15" s="29">
+        <v>6</v>
+      </c>
+      <c r="D15" s="29">
+        <v>6</v>
+      </c>
+      <c r="E15" s="29">
+        <v>6</v>
+      </c>
+      <c r="F15" s="29">
+        <v>6</v>
+      </c>
+      <c r="G15" s="29">
+        <v>6</v>
+      </c>
+      <c r="H15" s="29">
+        <v>6</v>
+      </c>
+      <c r="I15" s="29">
+        <v>6</v>
+      </c>
+      <c r="J15" s="29">
+        <v>6</v>
+      </c>
+      <c r="K15" s="29">
+        <v>6</v>
+      </c>
+      <c r="L15" s="29">
+        <v>2</v>
+      </c>
+      <c r="M15" s="29">
+        <v>2</v>
+      </c>
+      <c r="N15" s="29">
+        <v>2</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>2</v>
+      </c>
+      <c r="R15" s="29">
+        <v>2</v>
+      </c>
+      <c r="S15" s="29">
+        <v>2</v>
+      </c>
+      <c r="T15" s="29">
+        <v>2</v>
+      </c>
+      <c r="U15" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="16">
+        <v>4105</v>
+      </c>
+      <c r="B16" s="29">
+        <v>6</v>
+      </c>
+      <c r="C16" s="29">
+        <v>6</v>
+      </c>
+      <c r="D16" s="29">
+        <v>6</v>
+      </c>
+      <c r="E16" s="29">
+        <v>6</v>
+      </c>
+      <c r="F16" s="29">
+        <v>6</v>
+      </c>
+      <c r="G16" s="29">
+        <v>6</v>
+      </c>
+      <c r="H16" s="29">
+        <v>6</v>
+      </c>
+      <c r="I16" s="29">
+        <v>6</v>
+      </c>
+      <c r="J16" s="29">
+        <v>6</v>
+      </c>
+      <c r="K16" s="29">
+        <v>6</v>
+      </c>
+      <c r="L16" s="29">
+        <v>2</v>
+      </c>
+      <c r="M16" s="29">
+        <v>2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2</v>
+      </c>
+      <c r="O16" s="29">
+        <v>2</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>2</v>
+      </c>
+      <c r="R16" s="29">
+        <v>2</v>
+      </c>
+      <c r="S16" s="29">
+        <v>2</v>
+      </c>
+      <c r="T16" s="29">
+        <v>2</v>
+      </c>
+      <c r="U16" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="16">
+        <v>4107</v>
+      </c>
+      <c r="B17" s="29">
+        <v>6</v>
+      </c>
+      <c r="C17" s="29">
+        <v>6</v>
+      </c>
+      <c r="D17" s="29">
+        <v>6</v>
+      </c>
+      <c r="E17" s="29">
+        <v>6</v>
+      </c>
+      <c r="F17" s="29">
+        <v>6</v>
+      </c>
+      <c r="G17" s="29">
+        <v>6</v>
+      </c>
+      <c r="H17" s="29">
+        <v>6</v>
+      </c>
+      <c r="I17" s="29">
+        <v>6</v>
+      </c>
+      <c r="J17" s="29">
+        <v>6</v>
+      </c>
+      <c r="K17" s="29">
+        <v>6</v>
+      </c>
+      <c r="L17" s="29">
+        <v>2</v>
+      </c>
+      <c r="M17" s="29">
+        <v>2</v>
+      </c>
+      <c r="N17" s="29">
+        <v>2</v>
+      </c>
+      <c r="O17" s="29">
+        <v>2</v>
+      </c>
+      <c r="P17" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0</v>
+      </c>
+      <c r="R17" s="29">
+        <v>2</v>
+      </c>
+      <c r="S17" s="29">
+        <v>2</v>
+      </c>
+      <c r="T17" s="29">
+        <v>2</v>
+      </c>
+      <c r="U17" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="16">
+        <v>4108</v>
+      </c>
+      <c r="B18" s="29">
+        <v>6</v>
+      </c>
+      <c r="C18" s="29">
+        <v>6</v>
+      </c>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29">
+        <v>6</v>
+      </c>
+      <c r="F18" s="29">
+        <v>6</v>
+      </c>
+      <c r="G18" s="29">
+        <v>6</v>
+      </c>
+      <c r="H18" s="29">
+        <v>6</v>
+      </c>
+      <c r="I18" s="29">
+        <v>6</v>
+      </c>
+      <c r="J18" s="29">
+        <v>6</v>
+      </c>
+      <c r="K18" s="29">
+        <v>6</v>
+      </c>
+      <c r="L18" s="29">
+        <v>2</v>
+      </c>
+      <c r="M18" s="29">
+        <v>2</v>
+      </c>
+      <c r="N18" s="29">
+        <v>2</v>
+      </c>
+      <c r="O18" s="29">
+        <v>2</v>
+      </c>
+      <c r="P18" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>2</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0</v>
+      </c>
+      <c r="S18" s="29">
+        <v>2</v>
+      </c>
+      <c r="T18" s="29">
+        <v>2</v>
+      </c>
+      <c r="U18" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="16">
+        <v>4109</v>
+      </c>
+      <c r="B19" s="29">
+        <v>6</v>
+      </c>
+      <c r="C19" s="29">
+        <v>6</v>
+      </c>
+      <c r="D19" s="29">
+        <v>6</v>
+      </c>
+      <c r="E19" s="29">
+        <v>6</v>
+      </c>
+      <c r="F19" s="29">
+        <v>6</v>
+      </c>
+      <c r="G19" s="29">
+        <v>6</v>
+      </c>
+      <c r="H19" s="29">
+        <v>6</v>
+      </c>
+      <c r="I19" s="29">
+        <v>6</v>
+      </c>
+      <c r="J19" s="29">
+        <v>6</v>
+      </c>
+      <c r="K19" s="29">
+        <v>6</v>
+      </c>
+      <c r="L19" s="29">
+        <v>2</v>
+      </c>
+      <c r="M19" s="29">
+        <v>2</v>
+      </c>
+      <c r="N19" s="29">
+        <v>2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>2</v>
+      </c>
+      <c r="P19" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>2</v>
+      </c>
+      <c r="R19" s="29">
+        <v>2</v>
+      </c>
+      <c r="S19" s="29">
+        <v>0</v>
+      </c>
+      <c r="T19" s="29">
+        <v>2</v>
+      </c>
+      <c r="U19" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="24">
+        <v>4111</v>
+      </c>
+      <c r="B20" s="25">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25">
+        <v>6</v>
+      </c>
+      <c r="D20" s="25">
+        <v>6</v>
+      </c>
+      <c r="E20" s="25">
+        <v>6</v>
+      </c>
+      <c r="F20" s="25">
+        <v>6</v>
+      </c>
+      <c r="G20" s="25">
+        <v>6</v>
+      </c>
+      <c r="H20" s="25">
+        <v>6</v>
+      </c>
+      <c r="I20" s="25">
+        <v>6</v>
+      </c>
+      <c r="J20" s="25">
+        <v>6</v>
+      </c>
+      <c r="K20" s="25">
+        <v>6</v>
+      </c>
+      <c r="L20" s="24">
+        <v>2</v>
+      </c>
+      <c r="M20" s="24">
+        <v>2</v>
+      </c>
+      <c r="N20" s="24">
+        <v>2</v>
+      </c>
+      <c r="O20" s="24">
+        <v>2</v>
+      </c>
+      <c r="P20" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>2</v>
+      </c>
+      <c r="R20" s="24">
+        <v>2</v>
+      </c>
+      <c r="S20" s="24">
+        <v>2</v>
+      </c>
+      <c r="T20" s="24">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="30">
+        <v>5112</v>
+      </c>
+      <c r="B21" s="29">
+        <v>6</v>
+      </c>
+      <c r="C21" s="29">
+        <v>6</v>
+      </c>
+      <c r="D21" s="29">
+        <v>6</v>
+      </c>
+      <c r="E21" s="29">
+        <v>6</v>
+      </c>
+      <c r="F21" s="29">
+        <v>6</v>
+      </c>
+      <c r="G21" s="29">
+        <v>6</v>
+      </c>
+      <c r="H21" s="29">
+        <v>6</v>
+      </c>
+      <c r="I21" s="29">
+        <v>6</v>
+      </c>
+      <c r="J21" s="29">
+        <v>6</v>
+      </c>
+      <c r="K21" s="29">
+        <v>6</v>
+      </c>
+      <c r="L21" s="16">
+        <v>4</v>
+      </c>
+      <c r="M21" s="16">
+        <v>4</v>
+      </c>
+      <c r="N21" s="16">
+        <v>4</v>
+      </c>
+      <c r="O21" s="16">
+        <v>4</v>
+      </c>
+      <c r="P21" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>4</v>
+      </c>
+      <c r="R21" s="16">
+        <v>4</v>
+      </c>
+      <c r="S21" s="16">
+        <v>4</v>
+      </c>
+      <c r="T21" s="16">
+        <v>4</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16EF99F-FC9F-49B7-A138-61ACDAAE7819}">
+  <dimension ref="A1:C401"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
+        <v>2101</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C11" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B12" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B13" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B14" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C14" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B15" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C15" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B16" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C16" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B17" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B18" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C18" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B19" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C19" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B20" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C20" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="18">
+        <v>2101</v>
+      </c>
+      <c r="B21" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C21" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12">
+        <v>2112</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C24" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C25" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C27" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C28" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B29" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B30" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C30" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B31" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C31" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B32" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C32" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B33" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C33" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B34" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C34" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B35" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C35" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B36" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C36" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B37" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C37" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B38" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C38" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B39" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C39" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15">
+        <v>2112</v>
+      </c>
+      <c r="B40" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C40" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="18">
+        <v>2112</v>
+      </c>
+      <c r="B41" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C41" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="21">
+        <v>2114</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C42" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B43" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B45" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C45" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B47" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B49" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B50" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C50" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B51" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C51" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B52" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C52" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B53" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C53" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B54" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C54" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B55" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C55" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B56" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C56" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B57" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C57" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B58" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C58" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B59" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C59" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="22">
+        <v>2114</v>
+      </c>
+      <c r="B60" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C60" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="23">
+        <v>2114</v>
+      </c>
+      <c r="B61" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C61" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="21">
+        <v>2201</v>
+      </c>
+      <c r="B62" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C62" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B63" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C63" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B64" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C64" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B65" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B66" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C66" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B67" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C67" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B68" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C68" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B69" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C69" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B70" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C70" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B71" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C71" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B72" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C72" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B73" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C73" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B74" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C74" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B75" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C75" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B76" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C76" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B77" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C77" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B78" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C78" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B79" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C79" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B80" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C80" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="23">
+        <v>2201</v>
+      </c>
+      <c r="B81" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C81" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="21">
+        <v>2202</v>
+      </c>
+      <c r="B82" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C82" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B83" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C83" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B84" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C84" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B85" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C85" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B86" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B87" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C87" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B88" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C88" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B89" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C89" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B90" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C90" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B91" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C91" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B92" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C92" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B93" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C93" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B94" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C94" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B95" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C95" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B96" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C96" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B97" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C97" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B98" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C98" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B99" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C99" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B100" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C100" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
+      <c r="A101" s="23">
+        <v>2202</v>
+      </c>
+      <c r="B101" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C101" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="21">
+        <v>2213</v>
+      </c>
+      <c r="B102" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B103" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C103" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B104" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C104" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B105" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C105" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B106" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C106" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B107" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C107" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B108" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C108" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B109" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C109" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B110" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C110" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B111" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C111" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B112" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C112" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B113" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C113" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B114" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C114" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B115" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C115" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B116" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C116" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B117" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C117" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B118" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C118" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B119" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C119" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B120" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C120" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="23">
+        <v>2213</v>
+      </c>
+      <c r="B121" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C121" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="21">
+        <v>2230</v>
+      </c>
+      <c r="B122" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C122" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B123" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C123" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B124" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C124" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B125" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C125" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B126" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C126" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B127" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C127" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B128" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C128" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B129" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C129" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B130" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C130" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B131" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C131" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B132" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C132" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B133" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C133" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B134" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C134" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B135" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C135" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B136" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C136" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B137" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C137" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B138" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C138" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B139" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C139" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="22">
+        <v>2230</v>
+      </c>
+      <c r="B140" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C140" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="23">
+        <v>2230</v>
+      </c>
+      <c r="B141" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C141" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="21">
+        <v>2301</v>
+      </c>
+      <c r="B142" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C142" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B143" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C143" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B144" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C144" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B145" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C145" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B146" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C146" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B147" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C147" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B148" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C148" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B149" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C149" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B150" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C150" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B151" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C151" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B152" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C152" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B153" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C153" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B154" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C154" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B155" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C155" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B156" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C156" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B157" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C157" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B158" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C158" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B159" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C159" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="22">
+        <v>2301</v>
+      </c>
+      <c r="B160" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C160" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1">
+      <c r="A161" s="23">
+        <v>2301</v>
+      </c>
+      <c r="B161" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C161" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="21">
+        <v>3103</v>
+      </c>
+      <c r="B162" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C162" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B163" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C163" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B164" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C164" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B165" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C165" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B166" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C166" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B167" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C167" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B168" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C168" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B169" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C169" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B170" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C170" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B171" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C171" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B172" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C172" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B173" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C173" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B174" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C174" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B175" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C175" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B176" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C176" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B177" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C177" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B178" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C178" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B179" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C179" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="22">
+        <v>3103</v>
+      </c>
+      <c r="B180" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C180" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="23">
+        <v>3103</v>
+      </c>
+      <c r="B181" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C181" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="21">
+        <v>3302</v>
+      </c>
+      <c r="B182" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C182" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B183" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C183" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B184" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C184" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B185" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C185" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B186" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C186" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B187" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C187" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B188" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C188" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B189" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C189" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B190" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C190" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B191" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C191" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B192" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C192" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B193" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C193" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B194" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C194" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B195" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C195" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B196" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C196" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B197" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C197" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B198" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C198" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B199" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C199" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="22">
+        <v>3302</v>
+      </c>
+      <c r="B200" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C200" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="23">
+        <v>3302</v>
+      </c>
+      <c r="B201" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C201" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="21">
+        <v>4101</v>
+      </c>
+      <c r="B202" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C202" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B203" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C203" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B204" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C204" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B205" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C205" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B206" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C206" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B207" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C207" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B208" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C208" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B209" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C209" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B210" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C210" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B211" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C211" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B212" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C212" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B213" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C213" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B214" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C214" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B215" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C215" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B216" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C216" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B217" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C217" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B218" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C218" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B219" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C219" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="22">
+        <v>4101</v>
+      </c>
+      <c r="B220" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C220" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" thickBot="1">
+      <c r="A221" s="23">
+        <v>4101</v>
+      </c>
+      <c r="B221" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C221" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="21">
+        <v>4102</v>
+      </c>
+      <c r="B222" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C222" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B223" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C223" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B224" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C224" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B225" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C225" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B226" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C226" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B227" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C227" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B228" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C228" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B229" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C229" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B230" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C230" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B231" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C231" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B232" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C232" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B233" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C233" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B234" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C234" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B235" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C235" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B236" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C236" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B237" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C237" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B238" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C238" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B239" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C239" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="22">
+        <v>4102</v>
+      </c>
+      <c r="B240" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C240" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" thickBot="1">
+      <c r="A241" s="23">
+        <v>4102</v>
+      </c>
+      <c r="B241" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C241" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="21">
+        <v>4103</v>
+      </c>
+      <c r="B242" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C242" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B243" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C243" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B244" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C244" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B245" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C245" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B246" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C246" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B247" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C247" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B248" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C248" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B249" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C249" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B250" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C250" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B251" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C251" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B252" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C252" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B253" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C253" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B254" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C254" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B255" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C255" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B256" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C256" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B257" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C257" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B258" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C258" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B259" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C259" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="22">
+        <v>4103</v>
+      </c>
+      <c r="B260" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C260" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" thickBot="1">
+      <c r="A261" s="23">
+        <v>4103</v>
+      </c>
+      <c r="B261" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C261" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="21">
+        <v>4104</v>
+      </c>
+      <c r="B262" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C262" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B263" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C263" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B264" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C264" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B265" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C265" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B266" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C266" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B267" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C267" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B268" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C268" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B269" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C269" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B270" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C270" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B271" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C271" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B272" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C272" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B273" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C273" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B274" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C274" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B275" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C275" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B276" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C276" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B277" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C277" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B278" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C278" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B279" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C279" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="22">
+        <v>4104</v>
+      </c>
+      <c r="B280" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C280" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" thickBot="1">
+      <c r="A281" s="23">
+        <v>4104</v>
+      </c>
+      <c r="B281" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C281" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="21">
+        <v>4105</v>
+      </c>
+      <c r="B282" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C282" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B283" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C283" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B284" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C284" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B285" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C285" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B286" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C286" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B287" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C287" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B288" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C288" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B289" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C289" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B290" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C290" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B291" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C291" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B292" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C292" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B293" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C293" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B294" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C294" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B295" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C295" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B296" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C296" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B297" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C297" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B298" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C298" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B299" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C299" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="22">
+        <v>4105</v>
+      </c>
+      <c r="B300" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C300" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15" thickBot="1">
+      <c r="A301" s="23">
+        <v>4105</v>
+      </c>
+      <c r="B301" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C301" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="21">
+        <v>4107</v>
+      </c>
+      <c r="B302" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C302" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B303" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C303" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B304" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C304" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B305" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C305" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B306" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C306" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B307" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C307" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B308" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C308" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B309" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C309" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B310" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C310" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B311" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C311" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B312" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C312" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B313" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C313" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B314" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C314" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B315" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C315" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B316" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C316" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B317" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C317" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B318" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C318" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B319" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C319" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="22">
+        <v>4107</v>
+      </c>
+      <c r="B320" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C320" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15" thickBot="1">
+      <c r="A321" s="23">
+        <v>4107</v>
+      </c>
+      <c r="B321" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C321" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="21">
+        <v>4108</v>
+      </c>
+      <c r="B322" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C322" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B323" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C323" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B324" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C324" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B325" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C325" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B326" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C326" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B327" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C327" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B328" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C328" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B329" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C329" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B330" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C330" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B331" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C331" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B332" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C332" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B333" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C333" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B334" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C334" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B335" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C335" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B336" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C336" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B337" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C337" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B338" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C338" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B339" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C339" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="22">
+        <v>4108</v>
+      </c>
+      <c r="B340" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C340" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15" thickBot="1">
+      <c r="A341" s="23">
+        <v>4108</v>
+      </c>
+      <c r="B341" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C341" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="21">
+        <v>4109</v>
+      </c>
+      <c r="B342" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C342" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B343" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C343" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B344" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C344" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B345" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C345" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B346" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C346" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B347" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C347" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B348" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C348" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B349" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C349" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B350" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C350" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B351" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C351" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B352" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C352" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B353" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C353" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B354" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C354" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B355" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C355" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B356" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C356" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B357" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C357" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B358" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C358" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B359" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C359" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="22">
+        <v>4109</v>
+      </c>
+      <c r="B360" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C360" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15" thickBot="1">
+      <c r="A361" s="23">
+        <v>4109</v>
+      </c>
+      <c r="B361" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C361" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="21">
+        <v>4111</v>
+      </c>
+      <c r="B362" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C362" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B363" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C363" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B364" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C364" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B365" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C365" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B366" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C366" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B367" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C367" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B368" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C368" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B369" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C369" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B370" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C370" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B371" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C371" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B372" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C372" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B373" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C373" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B374" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C374" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B375" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C375" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B376" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C376" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B377" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C377" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B378" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C378" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B379" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C379" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="22">
+        <v>4111</v>
+      </c>
+      <c r="B380" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C380" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15" thickBot="1">
+      <c r="A381" s="23">
+        <v>4111</v>
+      </c>
+      <c r="B381" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C381" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="21">
+        <v>5112</v>
+      </c>
+      <c r="B382" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C382" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B383" s="16">
+        <v>2112</v>
+      </c>
+      <c r="C383" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B384" s="16">
+        <v>2114</v>
+      </c>
+      <c r="C384" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B385" s="16">
+        <v>2201</v>
+      </c>
+      <c r="C385" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B386" s="16">
+        <v>2202</v>
+      </c>
+      <c r="C386" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B387" s="16">
+        <v>2213</v>
+      </c>
+      <c r="C387" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B388" s="16">
+        <v>2230</v>
+      </c>
+      <c r="C388" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B389" s="16">
+        <v>2301</v>
+      </c>
+      <c r="C389" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B390" s="16">
+        <v>3103</v>
+      </c>
+      <c r="C390" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B391" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C391" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B392" s="16">
+        <v>4101</v>
+      </c>
+      <c r="C392" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B393" s="16">
+        <v>4102</v>
+      </c>
+      <c r="C393" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B394" s="16">
+        <v>4103</v>
+      </c>
+      <c r="C394" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B395" s="16">
+        <v>4104</v>
+      </c>
+      <c r="C395" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B396" s="16">
+        <v>4105</v>
+      </c>
+      <c r="C396" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B397" s="16">
+        <v>4107</v>
+      </c>
+      <c r="C397" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B398" s="16">
+        <v>4108</v>
+      </c>
+      <c r="C398" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B399" s="16">
+        <v>4109</v>
+      </c>
+      <c r="C399" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="22">
+        <v>5112</v>
+      </c>
+      <c r="B400" s="16">
+        <v>4111</v>
+      </c>
+      <c r="C400" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15" thickBot="1">
+      <c r="A401" s="23">
+        <v>5112</v>
+      </c>
+      <c r="B401" s="19">
+        <v>5112</v>
+      </c>
+      <c r="C401" s="20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C190492-53B8-472C-A0C3-5FB1C0B2B2B5}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="10" max="12" width="9" style="4"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="5"/>
@@ -561,64 +7913,64 @@
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I2" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J2" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K2" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L2" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V2" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -626,67 +7978,67 @@
         <v>2112</v>
       </c>
       <c r="B3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K3" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L3" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -694,67 +8046,67 @@
         <v>2114</v>
       </c>
       <c r="B4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K4" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L4" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -762,67 +8114,67 @@
         <v>2201</v>
       </c>
       <c r="B5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L5" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -830,67 +8182,67 @@
         <v>2202</v>
       </c>
       <c r="B6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K6" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L6" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -898,67 +8250,67 @@
         <v>2213</v>
       </c>
       <c r="B7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L7" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -966,67 +8318,67 @@
         <v>2230</v>
       </c>
       <c r="B8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="J8" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K8" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L8" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1034,67 +8386,67 @@
         <v>2301</v>
       </c>
       <c r="B9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="K9" s="6">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="L9" s="6">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="M9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V9" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1102,67 +8454,67 @@
         <v>3103</v>
       </c>
       <c r="B10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1170,67 +8522,67 @@
         <v>3302</v>
       </c>
       <c r="B11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1238,67 +8590,67 @@
         <v>3501</v>
       </c>
       <c r="B12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1306,67 +8658,67 @@
         <v>4101</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L13" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U13" s="9">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V13" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1374,67 +8726,67 @@
         <v>4102</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U14" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1442,67 +8794,67 @@
         <v>4103</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U15" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V15" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1510,67 +8862,67 @@
         <v>4104</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U16" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V16" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1578,67 +8930,67 @@
         <v>4105</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U17" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V17" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1646,67 +8998,67 @@
         <v>4107</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U18" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V18" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1714,67 +9066,67 @@
         <v>4108</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U19" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V19" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1782,67 +9134,67 @@
         <v>4109</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1850,67 +9202,67 @@
         <v>4111</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L21" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="N21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="O21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="P21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="R21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="S21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="T21" s="5">
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="U21" s="5">
         <v>0</v>
       </c>
       <c r="V21" s="9">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1918,72 +9270,245 @@
         <v>5112</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="N22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="O22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="R22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="S22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="T22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="U22" s="3">
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F39275-D7E0-4521-9F35-AF8B35412F4E}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8">
+        <v>2101</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>2112</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <v>2114</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>2201</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>2202</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>2213</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>2230</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>2301</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>3103</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>3302</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
+        <v>4101</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>4102</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>4103</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>4104</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>4105</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>4107</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>4108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>4109</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5">
+        <v>4111</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>5112</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>